--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.210976</v>
       </c>
       <c r="I2">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J2">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>0.6612712894186668</v>
+        <v>0.9007771753884445</v>
       </c>
       <c r="R2">
-        <v>5.951441604768</v>
+        <v>8.106994578496</v>
       </c>
       <c r="S2">
-        <v>0.008875055647745905</v>
+        <v>0.03238641332663759</v>
       </c>
       <c r="T2">
-        <v>0.008875055647745904</v>
+        <v>0.03238641332663759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.210976</v>
       </c>
       <c r="I3">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J3">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,13 +626,13 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
         <v>1.536660269336889</v>
@@ -641,10 +641,10 @@
         <v>13.829942424032</v>
       </c>
       <c r="S3">
-        <v>0.02062382810243345</v>
+        <v>0.05524886285435199</v>
       </c>
       <c r="T3">
-        <v>0.02062382810243345</v>
+        <v>0.05524886285435198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.210976</v>
       </c>
       <c r="I4">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J4">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>1.037342174606222</v>
+        <v>0.7628098186986667</v>
       </c>
       <c r="R4">
-        <v>9.336079571456001</v>
+        <v>6.865288368288</v>
       </c>
       <c r="S4">
-        <v>0.01392237901856818</v>
+        <v>0.02742595477881536</v>
       </c>
       <c r="T4">
-        <v>0.01392237901856818</v>
+        <v>0.02742595477881535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.210976</v>
       </c>
       <c r="I5">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J5">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>1.049363399552</v>
+        <v>0.5196713010773334</v>
       </c>
       <c r="R5">
-        <v>9.444270595968</v>
+        <v>4.677041709696</v>
       </c>
       <c r="S5">
-        <v>0.01408371830859186</v>
+        <v>0.01868418740009068</v>
       </c>
       <c r="T5">
-        <v>0.01408371830859186</v>
+        <v>0.01868418740009068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.210976</v>
       </c>
       <c r="I6">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J6">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>0.4894807058026667</v>
+        <v>0.5056418659128888</v>
       </c>
       <c r="R6">
-        <v>4.405326352224</v>
+        <v>4.550776793215999</v>
       </c>
       <c r="S6">
-        <v>0.006569419498486969</v>
+        <v>0.01817977510103456</v>
       </c>
       <c r="T6">
-        <v>0.006569419498486968</v>
+        <v>0.01817977510103456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.210976</v>
       </c>
       <c r="I7">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J7">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>1.353379909319111</v>
+        <v>1.021518505770667</v>
       </c>
       <c r="R7">
-        <v>12.180419183872</v>
+        <v>9.193666551935999</v>
       </c>
       <c r="S7">
-        <v>0.01816398534148934</v>
+        <v>0.03672752979606909</v>
       </c>
       <c r="T7">
-        <v>0.01816398534148934</v>
+        <v>0.03672752979606908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H8">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N8">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q8">
-        <v>0.5644952943666667</v>
+        <v>3.874013030853778</v>
       </c>
       <c r="R8">
-        <v>5.0804576493</v>
+        <v>34.866117277684</v>
       </c>
       <c r="S8">
-        <v>0.007576205455402687</v>
+        <v>0.1392857086947232</v>
       </c>
       <c r="T8">
-        <v>0.007576205455402687</v>
+        <v>0.1392857086947232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H9">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N9">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q9">
-        <v>1.311772497855556</v>
+        <v>6.608784136697555</v>
       </c>
       <c r="R9">
-        <v>11.8059524807</v>
+        <v>59.47905723027799</v>
       </c>
       <c r="S9">
-        <v>0.01760556386152104</v>
+        <v>0.2376112766681883</v>
       </c>
       <c r="T9">
-        <v>0.01760556386152105</v>
+        <v>0.2376112766681883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H10">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N10">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q10">
-        <v>0.8855288072888889</v>
+        <v>3.280650596444667</v>
       </c>
       <c r="R10">
-        <v>7.969759265600001</v>
+        <v>29.525855368002</v>
       </c>
       <c r="S10">
-        <v>0.01188486112754119</v>
+        <v>0.1179520408595159</v>
       </c>
       <c r="T10">
-        <v>0.01188486112754119</v>
+        <v>0.1179520408595159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H11">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N11">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q11">
-        <v>0.8957907452</v>
+        <v>2.234973806109334</v>
       </c>
       <c r="R11">
-        <v>8.062116706800001</v>
+        <v>20.114764254984</v>
       </c>
       <c r="S11">
-        <v>0.01202258867064213</v>
+        <v>0.08035592756627237</v>
       </c>
       <c r="T11">
-        <v>0.01202258867064213</v>
+        <v>0.08035592756627236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H12">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N12">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q12">
-        <v>0.4178459877666666</v>
+        <v>2.174636781451555</v>
       </c>
       <c r="R12">
-        <v>3.7606138899</v>
+        <v>19.571731033064</v>
       </c>
       <c r="S12">
-        <v>0.005607995467150306</v>
+        <v>0.07818657883846558</v>
       </c>
       <c r="T12">
-        <v>0.005607995467150306</v>
+        <v>0.07818657883846557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H13">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N13">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q13">
-        <v>1.155314925244444</v>
+        <v>4.393290716882667</v>
       </c>
       <c r="R13">
-        <v>10.3978343272</v>
+        <v>39.539616451944</v>
       </c>
       <c r="S13">
-        <v>0.01550571515244497</v>
+        <v>0.1579557441158353</v>
       </c>
       <c r="T13">
-        <v>0.01550571515244497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H14">
-        <v>2.174344</v>
-      </c>
-      <c r="I14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>9.403031</v>
-      </c>
-      <c r="N14">
-        <v>28.209093</v>
-      </c>
-      <c r="O14">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="P14">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="Q14">
-        <v>6.815141345554665</v>
-      </c>
-      <c r="R14">
-        <v>61.33627210999199</v>
-      </c>
-      <c r="S14">
-        <v>0.09146738964309881</v>
-      </c>
-      <c r="T14">
-        <v>0.09146738964309881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H15">
-        <v>2.174344</v>
-      </c>
-      <c r="I15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>21.85073566666667</v>
-      </c>
-      <c r="N15">
-        <v>65.55220700000001</v>
-      </c>
-      <c r="O15">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="P15">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="Q15">
-        <v>15.83700533080089</v>
-      </c>
-      <c r="R15">
-        <v>142.533047977208</v>
-      </c>
-      <c r="S15">
-        <v>0.2125516499106891</v>
-      </c>
-      <c r="T15">
-        <v>0.2125516499106891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H16">
-        <v>2.174344</v>
-      </c>
-      <c r="I16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.75061866666667</v>
-      </c>
-      <c r="N16">
-        <v>44.251856</v>
-      </c>
-      <c r="O16">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="P16">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="Q16">
-        <v>10.69097306471822</v>
-      </c>
-      <c r="R16">
-        <v>96.21875758246399</v>
-      </c>
-      <c r="S16">
-        <v>0.1434857106246663</v>
-      </c>
-      <c r="T16">
-        <v>0.1434857106246663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H17">
-        <v>2.174344</v>
-      </c>
-      <c r="I17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.921556</v>
-      </c>
-      <c r="N17">
-        <v>44.764668</v>
-      </c>
-      <c r="O17">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="P17">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="Q17">
-        <v>10.814865253088</v>
-      </c>
-      <c r="R17">
-        <v>97.33378727779198</v>
-      </c>
-      <c r="S17">
-        <v>0.145148492728921</v>
-      </c>
-      <c r="T17">
-        <v>0.145148492728921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H18">
-        <v>2.174344</v>
-      </c>
-      <c r="I18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.960233</v>
-      </c>
-      <c r="N18">
-        <v>20.880699</v>
-      </c>
-      <c r="O18">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="P18">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="Q18">
-        <v>5.044646954050665</v>
-      </c>
-      <c r="R18">
-        <v>45.40182258645599</v>
-      </c>
-      <c r="S18">
-        <v>0.06770522651874215</v>
-      </c>
-      <c r="T18">
-        <v>0.06770522651874215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H19">
-        <v>2.174344</v>
-      </c>
-      <c r="I19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.24455733333333</v>
-      </c>
-      <c r="N19">
-        <v>57.733672</v>
-      </c>
-      <c r="O19">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="P19">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="Q19">
-        <v>13.94809592346311</v>
-      </c>
-      <c r="R19">
-        <v>125.532863311168</v>
-      </c>
-      <c r="S19">
-        <v>0.1872002149218645</v>
-      </c>
-      <c r="T19">
-        <v>0.1872002149218645</v>
+        <v>0.1579557441158353</v>
       </c>
     </row>
   </sheetData>
